--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1187,6 +1187,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5668,13 +5672,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5725,7 +5729,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5749,7 +5753,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5760,7 +5764,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5789,7 +5793,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5842,7 +5846,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5866,7 +5870,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5877,11 +5881,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5903,10 +5907,10 @@
         <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
@@ -5961,7 +5965,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5996,7 +6000,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6019,13 +6023,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6076,7 +6080,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6085,7 +6089,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6097,10 +6101,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6111,7 +6115,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6134,13 +6138,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6191,7 +6195,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6200,7 +6204,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6212,10 +6216,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6226,7 +6230,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6252,16 +6256,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6289,10 +6293,10 @@
         <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6310,7 +6314,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6328,10 +6332,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>305</v>
@@ -6345,7 +6349,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6371,16 +6375,16 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6405,13 +6409,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6429,7 +6433,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6447,10 +6451,10 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>305</v>
@@ -6464,7 +6468,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6487,17 +6491,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6546,7 +6550,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6570,7 +6574,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6581,7 +6585,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6604,13 +6608,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6661,7 +6665,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6682,10 +6686,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6696,7 +6700,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6719,16 +6723,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6778,7 +6782,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6799,10 +6803,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6813,7 +6817,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6836,16 +6840,16 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6895,7 +6899,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6916,10 +6920,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6930,7 +6934,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6956,16 +6960,16 @@
         <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -7014,7 +7018,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7035,10 +7039,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7049,7 +7053,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7072,13 +7076,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7129,7 +7133,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7153,7 +7157,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7164,7 +7168,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7193,7 +7197,7 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7246,7 +7250,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7270,7 +7274,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7281,11 +7285,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7307,10 +7311,10 @@
         <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>140</v>
@@ -7365,7 +7369,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7400,7 +7404,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7426,13 +7430,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>208</v>
@@ -7442,7 +7446,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>81</v>
@@ -7482,7 +7486,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>91</v>
@@ -7500,7 +7504,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>213</v>
@@ -7517,7 +7521,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7540,16 +7544,16 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>277</v>
@@ -7601,7 +7605,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7619,7 +7623,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>282</v>
@@ -7636,7 +7640,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7662,13 +7666,13 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>289</v>
@@ -7720,7 +7724,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7755,7 +7759,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7784,13 +7788,13 @@
         <v>297</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
@@ -7839,7 +7843,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7874,7 +7878,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7900,16 +7904,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
@@ -7958,7 +7962,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -680,15 +680,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
-    &lt;code value="physical-findings"/&gt;
-    &lt;display value="Physical Findings"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PhysicalExamCode_VS</t>
   </si>
   <si>
@@ -708,6 +699,112 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>physicalExamCode</t>
+  </si>
+  <si>
+    <t>身体所見項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+  </si>
+  <si>
+    <t>身体所見項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
+  </si>
+  <si>
+    <t>推奨項目コードは必須ではない、派生先によるコード体系を作成し割り振ることを否定しない</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;code value="physical-findings"/&gt;
+  &lt;display value="Physical Findings"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -910,17 +1007,17 @@
 結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP Core仕様】コードに限定する</t>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>Codes specifying either Yes or No used in fields containing binary answers generally user-specified.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -937,6 +1034,15 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>所見の有無（Y or N）を指定する</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0136</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1044,11 +1150,10 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
-観察が行われた被験者の体の部位（すなわち、標的部位）を示す。</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>ICD-11</t>
@@ -1072,18 +1177,13 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done　どのように実施されたか。</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.
-観測を実行するために使用されるメカニズムを示す。</t>
+    <t>Indicates the mechanism used to perform the observation.</t>
   </si>
   <si>
     <t>MEDIS症状・所見マスターの「診察方法」</t>
   </si>
   <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
-場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationPhysicalExamMethod_VS</t>
@@ -1189,29 +1289,7 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1402,7 +1480,7 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results　　コンポーネント結果</t>
+    <t>所見有り（valueCodeableConceptがY）の場合に、具体的な所見をコード、または文字列で記載する</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.
@@ -1445,24 +1523,34 @@
 【JP Core仕様】具体的な所見を表すコード（固定値）</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
-    &lt;code value="detailed-physical-findings"/&gt;
-    &lt;display value="Detailed Physical Findings"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
+    <t>Observation.component.code.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://jpfhir.jp/fhir/Common/CodeSystem/JP_PhysicalExamCode_CS"/&gt;
+  &lt;code value="detailed-physical-findings"/&gt;
+  &lt;display value="Detailed Physical Findings"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>Observation.component.code.text</t>
+  </si>
+  <si>
     <t>Observation.component.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-string</t>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -1821,7 +1909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1831,7 +1919,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1853,11 +1941,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="92.58984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.46484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -3803,7 +3891,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>81</v>
@@ -3821,11 +3909,11 @@
         <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>81</v>
@@ -3858,27 +3946,27 @@
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3886,7 +3974,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>91</v>
@@ -3898,23 +3986,19 @@
         <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>81</v>
       </c>
@@ -3962,7 +4046,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -3974,22 +4058,22 @@
         <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>224</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3997,11 +4081,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4017,19 +4101,19 @@
         <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4067,19 +4151,19 @@
         <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4091,7 +4175,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>81</v>
@@ -4100,13 +4184,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -4114,18 +4198,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>81</v>
@@ -4137,19 +4221,19 @@
         <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4186,16 +4270,14 @@
         <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>233</v>
@@ -4204,7 +4286,7 @@
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>81</v>
@@ -4213,19 +4295,19 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4233,11 +4315,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="C21" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4256,19 +4340,19 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>81</v>
@@ -4278,7 +4362,7 @@
         <v>81</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>81</v>
@@ -4317,13 +4401,13 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>81</v>
@@ -4332,19 +4416,19 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4352,7 +4436,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4375,18 +4459,20 @@
         <v>92</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4434,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4455,13 +4541,13 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4469,7 +4555,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4477,10 +4563,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>81</v>
@@ -4492,19 +4578,19 @@
         <v>92</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -4553,13 +4639,13 @@
         <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>81</v>
@@ -4568,19 +4654,19 @@
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -4588,7 +4674,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4599,7 +4685,7 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>81</v>
@@ -4611,20 +4697,18 @@
         <v>92</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4648,13 +4732,13 @@
         <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>278</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>81</v>
@@ -4672,16 +4756,16 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>103</v>
@@ -4690,28 +4774,28 @@
         <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4727,22 +4811,22 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>81</v>
@@ -4767,13 +4851,13 @@
         <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>81</v>
@@ -4791,7 +4875,7 @@
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4800,25 +4884,25 @@
         <v>91</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -4826,18 +4910,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>81</v>
@@ -4846,22 +4930,22 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -4886,13 +4970,13 @@
         <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>81</v>
@@ -4910,13 +4994,13 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>81</v>
@@ -4925,27 +5009,27 @@
         <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>283</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>286</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4956,7 +5040,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
@@ -4965,23 +5049,21 @@
         <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5029,13 +5111,13 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>81</v>
@@ -5050,13 +5132,13 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5064,7 +5146,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5075,7 +5157,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>81</v>
@@ -5084,21 +5166,23 @@
         <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>189</v>
+        <v>296</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5122,11 +5206,13 @@
         <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X28" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y28" t="s" s="2">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5144,13 +5230,13 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>81</v>
@@ -5159,27 +5245,27 @@
         <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5199,22 +5285,22 @@
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5239,29 +5325,29 @@
         <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -5270,7 +5356,7 @@
         <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>103</v>
@@ -5279,26 +5365,28 @@
         <v>81</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>313</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>81</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5316,21 +5404,23 @@
         <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>333</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>81</v>
       </c>
@@ -5354,13 +5444,11 @@
         <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>81</v>
@@ -5378,7 +5466,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5387,7 +5475,7 @@
         <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>103</v>
@@ -5396,24 +5484,24 @@
         <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>340</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5436,18 +5524,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>342</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5471,13 +5561,13 @@
         <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>326</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>81</v>
@@ -5495,7 +5585,7 @@
         <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5504,7 +5594,7 @@
         <v>91</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>328</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>103</v>
@@ -5513,28 +5603,28 @@
         <v>81</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5553,19 +5643,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -5590,13 +5680,13 @@
         <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>325</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>81</v>
@@ -5614,7 +5704,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5626,30 +5716,30 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>356</v>
+        <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5660,7 +5750,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>81</v>
@@ -5672,16 +5762,20 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5729,19 +5823,19 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>81</v>
@@ -5750,10 +5844,10 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5764,18 +5858,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>81</v>
@@ -5787,16 +5881,16 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5822,13 +5916,11 @@
         <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>354</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>81</v>
@@ -5846,77 +5938,77 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>355</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>356</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>146</v>
+        <v>362</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -5941,13 +6033,11 @@
         <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>363</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>81</v>
@@ -5965,19 +6055,19 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>81</v>
@@ -5986,10 +6076,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6000,7 +6090,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6023,15 +6113,17 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>81</v>
@@ -6080,7 +6172,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6089,7 +6181,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6098,24 +6190,24 @@
         <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6138,15 +6230,17 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6195,7 +6289,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6204,7 +6298,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>377</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6213,19 +6307,19 @@
         <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -6241,7 +6335,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>81</v>
@@ -6253,19 +6347,19 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6290,13 +6384,13 @@
         <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>390</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6320,25 +6414,25 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>390</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6360,7 +6454,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>81</v>
@@ -6372,20 +6466,16 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>394</v>
+        <v>218</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>81</v>
       </c>
@@ -6409,13 +6499,13 @@
         <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6433,31 +6523,31 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6468,18 +6558,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>81</v>
@@ -6491,18 +6581,18 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>402</v>
+        <v>137</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>403</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6550,19 +6640,19 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>81</v>
@@ -6574,7 +6664,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>406</v>
+        <v>221</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6585,39 +6675,43 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>360</v>
+        <v>137</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6665,19 +6759,19 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>81</v>
@@ -6686,10 +6780,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>134</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6700,7 +6794,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6711,7 +6805,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -6720,20 +6814,18 @@
         <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>81</v>
@@ -6782,16 +6874,16 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>103</v>
@@ -6803,10 +6895,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6817,7 +6909,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6828,7 +6920,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>81</v>
@@ -6837,20 +6929,18 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -6899,16 +6989,16 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>103</v>
@@ -6920,10 +7010,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6934,7 +7024,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6945,7 +7035,7 @@
         <v>79</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>81</v>
@@ -6954,22 +7044,22 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>351</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6994,13 +7084,13 @@
         <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>416</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>417</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>81</v>
@@ -7018,13 +7108,13 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>81</v>
@@ -7036,13 +7126,13 @@
         <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>430</v>
+        <v>340</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7053,7 +7143,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7064,7 +7154,7 @@
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>81</v>
@@ -7076,16 +7166,20 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7109,13 +7203,13 @@
         <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>81</v>
@@ -7133,31 +7227,31 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7168,18 +7262,18 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>81</v>
@@ -7191,18 +7285,18 @@
         <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>137</v>
+        <v>429</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>430</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7250,19 +7344,19 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>367</v>
+        <v>428</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>81</v>
@@ -7274,7 +7368,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7285,43 +7379,39 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7369,19 +7459,19 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>81</v>
@@ -7390,10 +7480,10 @@
         <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7404,7 +7494,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7412,10 +7502,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7427,72 +7517,72 @@
         <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>189</v>
+        <v>439</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="R48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X48" s="2"/>
-      <c r="Y48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="AF48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -7504,16 +7594,16 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>213</v>
+        <v>443</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>81</v>
@@ -7521,7 +7611,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7532,7 +7622,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -7544,20 +7634,18 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7605,13 +7693,13 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>81</v>
@@ -7623,24 +7711,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>445</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>282</v>
+        <v>443</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>284</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7651,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -7660,22 +7748,22 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>189</v>
+        <v>385</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>289</v>
+        <v>455</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -7700,13 +7788,13 @@
         <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>81</v>
@@ -7724,16 +7812,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -7745,10 +7833,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>134</v>
+        <v>456</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>457</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7759,18 +7847,18 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -7782,20 +7870,16 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>453</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7819,13 +7903,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>302</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -7843,46 +7927,46 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>450</v>
+        <v>220</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>303</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>306</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7901,20 +7985,18 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>455</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>456</v>
+        <v>223</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>81</v>
       </c>
@@ -7962,7 +8044,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>454</v>
+        <v>226</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7974,24 +8056,1325 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="X54" s="2"/>
+      <c r="Y54" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO52" t="s" s="2">
+      <c r="AJ54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AB57" s="2"/>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-physicalexam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
